--- a/grupos/2APV - Estadisticos 20242.xlsx
+++ b/grupos/2APV - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="91">
   <si>
     <t>Materia</t>
   </si>
@@ -182,18 +182,18 @@
     <t>Domínguez Burgos Marioscar</t>
   </si>
   <si>
+    <t>Ameca Garcia Ivan</t>
+  </si>
+  <si>
+    <t>Sánchez Sánchez Miguel</t>
+  </si>
+  <si>
+    <t>De Jesús Orduña Sofía del Pilar</t>
+  </si>
+  <si>
     <t>Salazar Rivas Eduardo</t>
   </si>
   <si>
-    <t>Ameca Garcia Ivan</t>
-  </si>
-  <si>
-    <t>Sánchez Sánchez Miguel</t>
-  </si>
-  <si>
-    <t>De Jesús Orduña Sofía del Pilar</t>
-  </si>
-  <si>
     <t>Pesce Bautista Victor Manuel</t>
   </si>
   <si>
@@ -221,22 +221,28 @@
     <t>MARBELY YOSELIN</t>
   </si>
   <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
     <t>CLEMENTE</t>
   </si>
   <si>
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>CORTEZ</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
     <t>TORRES</t>
   </si>
   <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>CORTEZ</t>
-  </si>
-  <si>
-    <t>PAZ</t>
+    <t>REYES</t>
   </si>
   <si>
     <t>JUAREZ</t>
@@ -245,22 +251,22 @@
     <t>ROSAS</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>CHACON</t>
+  </si>
+  <si>
+    <t>VAS</t>
+  </si>
+  <si>
+    <t>CAMACHO</t>
+  </si>
+  <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>CHACON</t>
-  </si>
-  <si>
-    <t>VAS</t>
-  </si>
-  <si>
-    <t>CAMACHO</t>
-  </si>
-  <si>
-    <t>ROSALES</t>
+    <t>ERWIN ISRAEL</t>
   </si>
   <si>
     <t>BRYAN</t>
@@ -269,25 +275,22 @@
     <t>ERNESTO</t>
   </si>
   <si>
+    <t>SERGIO ALAN</t>
+  </si>
+  <si>
+    <t>GABRIEL URYEL</t>
+  </si>
+  <si>
+    <t>ROSMELY LEILANI</t>
+  </si>
+  <si>
+    <t>IRVING JESUS</t>
+  </si>
+  <si>
+    <t>ALEXIS GABRIEL</t>
+  </si>
+  <si>
     <t>JESUS ENRIQUE</t>
-  </si>
-  <si>
-    <t>SERGIO ALAN</t>
-  </si>
-  <si>
-    <t>GABRIEL URYEL</t>
-  </si>
-  <si>
-    <t>ROSMELY LEILANI</t>
-  </si>
-  <si>
-    <t>IRVING JESUS</t>
-  </si>
-  <si>
-    <t>ALEXIS GABRIEL</t>
-  </si>
-  <si>
-    <t>MARTIN ERNESTO</t>
   </si>
 </sst>
 </file>
@@ -861,13 +864,13 @@
         <v>7</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>8</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P4">
         <v>10</v>
@@ -921,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="AG4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH4">
         <v>9</v>
@@ -974,13 +977,13 @@
         <v>6</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>8</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P5">
         <v>8</v>
@@ -1034,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="AG5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH5">
         <v>7</v>
@@ -1087,13 +1090,13 @@
         <v>6</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N6">
         <v>9</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P6">
         <v>6</v>
@@ -1147,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="AG6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH6">
         <v>6</v>
@@ -1200,13 +1203,13 @@
         <v>6</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N7">
         <v>9</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P7">
         <v>9</v>
@@ -1254,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="AE7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF7">
         <v>9</v>
@@ -1313,13 +1316,13 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>8</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P8">
         <v>5</v>
@@ -1373,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="AG8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH8">
         <v>5</v>
@@ -1426,13 +1429,13 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N9">
         <v>8</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P9">
         <v>8</v>
@@ -1480,7 +1483,7 @@
         <v>7</v>
       </c>
       <c r="AE9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF9">
         <v>8</v>
@@ -1539,13 +1542,13 @@
         <v>6</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>8</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P10">
         <v>7</v>
@@ -1652,13 +1655,13 @@
         <v>7</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <v>8</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P11">
         <v>7</v>
@@ -1765,13 +1768,13 @@
         <v>7</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>8</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P12">
         <v>9</v>
@@ -1878,13 +1881,13 @@
         <v>6</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>7</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P13">
         <v>7</v>
@@ -1991,13 +1994,13 @@
         <v>6</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>8</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P14">
         <v>7</v>
@@ -2051,7 +2054,7 @@
         <v>8</v>
       </c>
       <c r="AG14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH14">
         <v>7</v>
@@ -2104,13 +2107,13 @@
         <v>6</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>7</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P15">
         <v>7</v>
@@ -2164,7 +2167,7 @@
         <v>7</v>
       </c>
       <c r="AG15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH15">
         <v>6</v>
@@ -2217,13 +2220,13 @@
         <v>7</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>8</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P16">
         <v>9</v>
@@ -2330,13 +2333,13 @@
         <v>6</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>8</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P17">
         <v>7</v>
@@ -2443,13 +2446,13 @@
         <v>6</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>8</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P18">
         <v>6</v>
@@ -2503,7 +2506,7 @@
         <v>8</v>
       </c>
       <c r="AG18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH18">
         <v>6</v>
@@ -2556,13 +2559,13 @@
         <v>6</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>7</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P19">
         <v>5</v>
@@ -2648,7 +2651,7 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -2669,13 +2672,13 @@
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N20">
         <v>7</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P20">
         <v>5</v>
@@ -2729,7 +2732,7 @@
         <v>6</v>
       </c>
       <c r="AG20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AH20">
         <v>5</v>
@@ -2782,13 +2785,13 @@
         <v>6</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N21">
         <v>9</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P21">
         <v>8</v>
@@ -2836,13 +2839,13 @@
         <v>7</v>
       </c>
       <c r="AE21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF21">
         <v>8</v>
       </c>
       <c r="AG21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH21">
         <v>8</v>
@@ -2895,13 +2898,13 @@
         <v>7</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>10</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P22">
         <v>8</v>
@@ -2949,7 +2952,7 @@
         <v>7</v>
       </c>
       <c r="AE22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF22">
         <v>10</v>
@@ -3008,13 +3011,13 @@
         <v>7</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <v>7</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P23">
         <v>7</v>
@@ -3062,13 +3065,13 @@
         <v>6</v>
       </c>
       <c r="AE23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF23">
         <v>7</v>
       </c>
       <c r="AG23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH23">
         <v>7</v>
@@ -3121,13 +3124,13 @@
         <v>7</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>8</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P24">
         <v>7</v>
@@ -3175,7 +3178,7 @@
         <v>7</v>
       </c>
       <c r="AE24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF24">
         <v>8</v>
@@ -3234,13 +3237,13 @@
         <v>7</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>8</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P25">
         <v>9</v>
@@ -3288,7 +3291,7 @@
         <v>7</v>
       </c>
       <c r="AE25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF25">
         <v>8</v>
@@ -3347,13 +3350,13 @@
         <v>6</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N26">
         <v>7</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P26">
         <v>9</v>
@@ -3401,7 +3404,7 @@
         <v>7</v>
       </c>
       <c r="AE26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF26">
         <v>7</v>
@@ -3615,7 +3618,7 @@
         <v>100</v>
       </c>
       <c r="O4">
-        <v>93.3</v>
+        <v>97</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -3642,7 +3645,7 @@
         <v>100</v>
       </c>
       <c r="X4">
-        <v>93.3</v>
+        <v>97</v>
       </c>
       <c r="Y4">
         <v>100</v>
@@ -3695,13 +3698,13 @@
         <v>70</v>
       </c>
       <c r="M5">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="N5">
         <v>100</v>
       </c>
       <c r="O5">
-        <v>73.3</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="P5">
         <v>94</v>
@@ -3722,13 +3725,13 @@
         <v>70</v>
       </c>
       <c r="V5">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="W5">
         <v>100</v>
       </c>
       <c r="X5">
-        <v>73.3</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="Y5">
         <v>94</v>
@@ -3781,13 +3784,13 @@
         <v>100</v>
       </c>
       <c r="M6">
-        <v>95.2</v>
+        <v>97.7</v>
       </c>
       <c r="N6">
         <v>100</v>
       </c>
       <c r="O6">
-        <v>86.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="P6">
         <v>98</v>
@@ -3808,13 +3811,13 @@
         <v>100</v>
       </c>
       <c r="V6">
-        <v>95.2</v>
+        <v>97.7</v>
       </c>
       <c r="W6">
         <v>100</v>
       </c>
       <c r="X6">
-        <v>86.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="Y6">
         <v>98</v>
@@ -3953,13 +3956,13 @@
         <v>70</v>
       </c>
       <c r="M8">
-        <v>66.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="N8">
         <v>100</v>
       </c>
       <c r="O8">
-        <v>33.3</v>
+        <v>69.7</v>
       </c>
       <c r="P8">
         <v>60</v>
@@ -3980,13 +3983,13 @@
         <v>70</v>
       </c>
       <c r="V8">
-        <v>66.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="W8">
         <v>100</v>
       </c>
       <c r="X8">
-        <v>33.3</v>
+        <v>69.7</v>
       </c>
       <c r="Y8">
         <v>60</v>
@@ -4039,7 +4042,7 @@
         <v>90</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>95.3</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -4066,7 +4069,7 @@
         <v>90</v>
       </c>
       <c r="V9">
-        <v>100</v>
+        <v>95.3</v>
       </c>
       <c r="W9">
         <v>100</v>
@@ -4125,13 +4128,13 @@
         <v>70</v>
       </c>
       <c r="M10">
-        <v>85.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="N10">
         <v>100</v>
       </c>
       <c r="O10">
-        <v>66.7</v>
+        <v>84.8</v>
       </c>
       <c r="P10">
         <v>96</v>
@@ -4152,13 +4155,13 @@
         <v>70</v>
       </c>
       <c r="V10">
-        <v>85.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="W10">
         <v>100</v>
       </c>
       <c r="X10">
-        <v>66.7</v>
+        <v>84.8</v>
       </c>
       <c r="Y10">
         <v>96</v>
@@ -4211,7 +4214,7 @@
         <v>90</v>
       </c>
       <c r="M11">
-        <v>85.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="N11">
         <v>100</v>
@@ -4238,7 +4241,7 @@
         <v>90</v>
       </c>
       <c r="V11">
-        <v>85.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="W11">
         <v>100</v>
@@ -4297,13 +4300,13 @@
         <v>90</v>
       </c>
       <c r="M12">
-        <v>76.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="N12">
         <v>100</v>
       </c>
       <c r="O12">
-        <v>80</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="P12">
         <v>96</v>
@@ -4324,13 +4327,13 @@
         <v>90</v>
       </c>
       <c r="V12">
-        <v>76.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="W12">
         <v>100</v>
       </c>
       <c r="X12">
-        <v>80</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="Y12">
         <v>96</v>
@@ -4383,13 +4386,13 @@
         <v>80</v>
       </c>
       <c r="M13">
-        <v>85.7</v>
+        <v>86</v>
       </c>
       <c r="N13">
         <v>100</v>
       </c>
       <c r="O13">
-        <v>66.7</v>
+        <v>84.8</v>
       </c>
       <c r="P13">
         <v>92</v>
@@ -4410,13 +4413,13 @@
         <v>80</v>
       </c>
       <c r="V13">
-        <v>85.7</v>
+        <v>86</v>
       </c>
       <c r="W13">
         <v>100</v>
       </c>
       <c r="X13">
-        <v>66.7</v>
+        <v>84.8</v>
       </c>
       <c r="Y13">
         <v>92</v>
@@ -4469,13 +4472,13 @@
         <v>70</v>
       </c>
       <c r="M14">
-        <v>71.40000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="N14">
         <v>100</v>
       </c>
       <c r="O14">
-        <v>60</v>
+        <v>81.8</v>
       </c>
       <c r="P14">
         <v>98</v>
@@ -4496,13 +4499,13 @@
         <v>70</v>
       </c>
       <c r="V14">
-        <v>71.40000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="W14">
         <v>100</v>
       </c>
       <c r="X14">
-        <v>60</v>
+        <v>81.8</v>
       </c>
       <c r="Y14">
         <v>98</v>
@@ -4555,13 +4558,13 @@
         <v>80</v>
       </c>
       <c r="M15">
-        <v>85.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="N15">
         <v>100</v>
       </c>
       <c r="O15">
-        <v>60</v>
+        <v>81.8</v>
       </c>
       <c r="P15">
         <v>86</v>
@@ -4582,13 +4585,13 @@
         <v>80</v>
       </c>
       <c r="V15">
-        <v>85.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="W15">
         <v>100</v>
       </c>
       <c r="X15">
-        <v>60</v>
+        <v>81.8</v>
       </c>
       <c r="Y15">
         <v>86</v>
@@ -4641,13 +4644,13 @@
         <v>90</v>
       </c>
       <c r="M16">
-        <v>85.7</v>
+        <v>90.7</v>
       </c>
       <c r="N16">
         <v>100</v>
       </c>
       <c r="O16">
-        <v>86.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="P16">
         <v>100</v>
@@ -4668,13 +4671,13 @@
         <v>90</v>
       </c>
       <c r="V16">
-        <v>85.7</v>
+        <v>90.7</v>
       </c>
       <c r="W16">
         <v>100</v>
       </c>
       <c r="X16">
-        <v>86.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="Y16">
         <v>100</v>
@@ -4813,13 +4816,13 @@
         <v>90</v>
       </c>
       <c r="M18">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="N18">
         <v>100</v>
       </c>
       <c r="O18">
-        <v>93.3</v>
+        <v>97</v>
       </c>
       <c r="P18">
         <v>100</v>
@@ -4840,13 +4843,13 @@
         <v>90</v>
       </c>
       <c r="V18">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="W18">
         <v>100</v>
       </c>
       <c r="X18">
-        <v>93.3</v>
+        <v>97</v>
       </c>
       <c r="Y18">
         <v>100</v>
@@ -4899,13 +4902,13 @@
         <v>70</v>
       </c>
       <c r="M19">
-        <v>47.6</v>
+        <v>58.1</v>
       </c>
       <c r="N19">
         <v>100</v>
       </c>
       <c r="O19">
-        <v>100</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="P19">
         <v>40</v>
@@ -4926,13 +4929,13 @@
         <v>70</v>
       </c>
       <c r="V19">
-        <v>47.6</v>
+        <v>58.1</v>
       </c>
       <c r="W19">
         <v>100</v>
       </c>
       <c r="X19">
-        <v>100</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="Y19">
         <v>40</v>
@@ -4964,7 +4967,7 @@
         <v>100</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20">
         <v>40</v>
@@ -4985,13 +4988,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>47.6</v>
+        <v>58.1</v>
       </c>
       <c r="N20">
         <v>100</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="P20">
         <v>40</v>
@@ -5012,13 +5015,13 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>47.6</v>
+        <v>58.1</v>
       </c>
       <c r="W20">
         <v>100</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="Y20">
         <v>40</v>
@@ -5071,7 +5074,7 @@
         <v>90</v>
       </c>
       <c r="M21">
-        <v>100</v>
+        <v>95.3</v>
       </c>
       <c r="N21">
         <v>100</v>
@@ -5098,7 +5101,7 @@
         <v>90</v>
       </c>
       <c r="V21">
-        <v>100</v>
+        <v>95.3</v>
       </c>
       <c r="W21">
         <v>100</v>
@@ -5243,13 +5246,13 @@
         <v>80</v>
       </c>
       <c r="M23">
-        <v>85.7</v>
+        <v>90.7</v>
       </c>
       <c r="N23">
         <v>100</v>
       </c>
       <c r="O23">
-        <v>86.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="P23">
         <v>96</v>
@@ -5270,13 +5273,13 @@
         <v>80</v>
       </c>
       <c r="V23">
-        <v>85.7</v>
+        <v>90.7</v>
       </c>
       <c r="W23">
         <v>100</v>
       </c>
       <c r="X23">
-        <v>86.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="Y23">
         <v>96</v>
@@ -5329,7 +5332,7 @@
         <v>80</v>
       </c>
       <c r="M24">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="N24">
         <v>100</v>
@@ -5356,7 +5359,7 @@
         <v>80</v>
       </c>
       <c r="V24">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="W24">
         <v>100</v>
@@ -5415,7 +5418,7 @@
         <v>90</v>
       </c>
       <c r="M25">
-        <v>4.8</v>
+        <v>100</v>
       </c>
       <c r="N25">
         <v>100</v>
@@ -5442,7 +5445,7 @@
         <v>90</v>
       </c>
       <c r="V25">
-        <v>4.8</v>
+        <v>100</v>
       </c>
       <c r="W25">
         <v>100</v>
@@ -5501,7 +5504,7 @@
         <v>90</v>
       </c>
       <c r="M26">
-        <v>85.7</v>
+        <v>93</v>
       </c>
       <c r="N26">
         <v>100</v>
@@ -5528,7 +5531,7 @@
         <v>90</v>
       </c>
       <c r="V26">
-        <v>85.7</v>
+        <v>93</v>
       </c>
       <c r="W26">
         <v>100</v>
@@ -5615,19 +5618,19 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2">
-        <v>43.5</v>
+        <v>52.2</v>
       </c>
       <c r="G2" s="2">
-        <v>56.5</v>
+        <v>47.8</v>
       </c>
       <c r="H2">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -5702,7 +5705,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -5711,30 +5714,30 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2">
-        <v>69.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="G5" s="2">
-        <v>26.1</v>
+        <v>21.7</v>
       </c>
       <c r="H5">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>4.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -5743,19 +5746,19 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2">
-        <v>78.3</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G6" s="2">
-        <v>21.7</v>
+        <v>17.4</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5766,7 +5769,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -5775,19 +5778,19 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>82.59999999999999</v>
+        <v>87</v>
       </c>
       <c r="G7" s="2">
-        <v>17.4</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -5798,7 +5801,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -5819,7 +5822,7 @@
         <v>13</v>
       </c>
       <c r="H8">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -5897,7 +5900,7 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5919,7 +5922,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5967,26 +5970,6 @@
       </c>
       <c r="F2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>24330051920390</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6031,16 +6014,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920274</v>
+        <v>24330051920393</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -6054,16 +6037,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920274</v>
+        <v>24330051920393</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -6077,19 +6060,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24330051920274</v>
+        <v>24330051920393</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -6100,16 +6083,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24330051920274</v>
+        <v>24330051920393</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -6123,16 +6106,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24330051920255</v>
+        <v>24330051920274</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -6146,16 +6129,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>24330051920255</v>
+        <v>24330051920274</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -6169,16 +6152,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>24330051920255</v>
+        <v>24330051920274</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -6192,22 +6175,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>24330051920369</v>
+        <v>24330051920255</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -6215,22 +6198,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>24330051920369</v>
+        <v>24330051920255</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -6238,16 +6221,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>24330051920369</v>
+        <v>24330051920255</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -6267,10 +6250,10 @@
         <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -6290,10 +6273,10 @@
         <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -6313,10 +6296,10 @@
         <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -6336,10 +6319,10 @@
         <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -6356,13 +6339,13 @@
         <v>24330051920256</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -6385,7 +6368,7 @@
         <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -6399,22 +6382,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>24330051920270</v>
+        <v>24330051920369</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G18">
         <v>5</v>

--- a/grupos/2APV - Estadisticos 20242.xlsx
+++ b/grupos/2APV - Estadisticos 20242.xlsx
@@ -182,7 +182,7 @@
     <t>Domínguez Burgos Marioscar</t>
   </si>
   <si>
-    <t>Ameca Garcia Ivan</t>
+    <t>González Nuñez Veronica</t>
   </si>
   <si>
     <t>Sánchez Sánchez Miguel</t>
